--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/reason_list.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/reason_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,63 +436,573 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>lang_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>rsnCatCode</t>
+          <t>descr</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>langCode</t>
+          <t>rsncat_code</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>isActive</t>
+          <t>is_active</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>IAF</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>APM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>Age-Photo Mismatch</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Mismatch between the Age and Photo</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>CLR</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GPM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Gender-Photo Mismatch</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Gender-Photo Mismatch between Gender and Photo</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IAD</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Invalid Address</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Invalid Address found</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DPG</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Duplicate Registration</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Duplicate Registration found</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>All the Details are matching</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>All the Details are matching</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>All the Demographic Details are Matching</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>All the Demographic Details are Matching</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OPM</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Only the Photograph is Matching</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Only the Photograph is Matching</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SDM</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Some of the Demographic Details are Matching</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Some of the Demographic Details are Matching</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>APM</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Décalage de lâge-Photo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Discordance entre lâge et la Photo</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GPM</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Incompatibilité de sexe-Photo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sexe-Photo discordance entre le sexe et la Photo</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>IAD</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Adresse non valide</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Adresse non valide trouvée</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DPG</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Enregistrement en double</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Double enregistrement trouvé</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Dautres</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dautres</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Tous les détails sont adaptent</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tous les détails sont adaptent</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Tous les détails démographiques sont Matching</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tous les détails démographiques sont Matching</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>OPM</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>La photographie est le rapprochement</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>La photographie est le rapprochement</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SDM</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Certains détails démographiques sont Matching</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Certains détails démographiques sont Matching</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/reason_list.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/reason_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,65 +434,629 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lang_code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>rsnCatCode</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>langCode</t>
+          <t>descr</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>isActive</t>
+          <t>rsncat_code</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>is_active</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>IAF</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>eng</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>APM</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Age-Photo Mismatch</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Mismatch between the Age and Photo</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CLR</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GPM</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Gender-Photo Mismatch</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Gender-Photo Mismatch between Gender and Photo</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>IAD</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Invalid Address</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Invalid Address found</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DPG</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Duplicate Registration</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Duplicate Registration found</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>All the Details are matching</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>All the Details are matching</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>All the Demographic Details are Matching</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>All the Demographic Details are Matching</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>OPM</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Only the Photograph is Matching</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Only the Photograph is Matching</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SDM</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Some of the Demographic Details are Matching</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Some of the Demographic Details are Matching</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>APM</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Décalage de lâge-Photo</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Discordance entre lâge et la Photo</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GPM</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Incompatibilité de sexe-Photo</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sexe-Photo discordance entre le sexe et la Photo</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>IAD</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Adresse non valide</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Adresse non valide trouvée</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DPG</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Enregistrement en double</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Double enregistrement trouvé</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dautres</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Dautres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CLR</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tous les détails sont adaptent</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Tous les détails sont adaptent</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tous les détails démographiques sont Matching</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tous les détails démographiques sont Matching</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>OPM</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>La photographie est le rapprochement</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>La photographie est le rapprochement</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SDM</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Certains détails démographiques sont Matching</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Certains détails démographiques sont Matching</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MNA</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
